--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD008F3-552A-5744-A2FD-1E12635B836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C68B28-66D0-EA43-8050-857CC579996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33600" yWindow="660" windowWidth="28040" windowHeight="16940" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Landen</t>
   </si>
 </sst>
 </file>
@@ -98,11 +101,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,17 +423,17 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -447,20 +450,31 @@
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>44606</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44609</v>
+      </c>
+      <c r="C4">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30">
         <f>SUM(C3:C29)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\eecs448-project-2\battleship\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C68B28-66D0-EA43-8050-857CC579996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D444A97-5444-484C-B0F4-C9F89D24E2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -56,6 +55,9 @@
   </si>
   <si>
     <t>Landen</t>
+  </si>
+  <si>
+    <t>Eric</t>
   </si>
 </sst>
 </file>
@@ -423,19 +425,19 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -457,7 +459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -468,13 +470,24 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44614</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30">
         <f>SUM(C3:C29)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\eecs448-project-2\battleship\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D444A97-5444-484C-B0F4-C9F89D24E2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5352CD-9983-46B8-B388-5819ED346990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -478,7 +478,7 @@
         <v>44614</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,7 +487,7 @@
       </c>
       <c r="C30">
         <f>SUM(C3:C29)</f>
-        <v>4.5</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Z\Desktop\Battleship Game Project 1 EECS448\eecs448-project-2\battleship\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5352CD-9983-46B8-B388-5819ED346990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C68B28-66D0-EA43-8050-857CC579996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -55,9 +56,6 @@
   </si>
   <si>
     <t>Landen</t>
-  </si>
-  <si>
-    <t>Eric</t>
   </si>
 </sst>
 </file>
@@ -425,19 +423,19 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -448,7 +446,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -459,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -470,24 +468,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44614</v>
-      </c>
-      <c r="C5">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30">
         <f>SUM(C3:C29)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/project2_hours_team9.xlsx
+++ b/documentation/project2_hours_team9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/landen/Desktop/Classes/Spring22/eecs448/Project2/battleship/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C68B28-66D0-EA43-8050-857CC579996F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59509DFF-2E8E-BC46-AE23-C8816F683FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
+    <workbookView xWindow="-35400" yWindow="1500" windowWidth="27640" windowHeight="17500" xr2:uid="{DE4D3226-987C-D248-9F68-E3A41E1223A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Hour Tracking - Project 2</t>
   </si>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,13 +468,46 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44613</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44622</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44623</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C30">
         <f>SUM(C3:C29)</f>
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
     </row>
   </sheetData>
